--- a/data/trans_orig/P6712-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4953</v>
+        <v>4616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01205847180546478</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06192749641409462</v>
+        <v>0.0577178867786247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>3822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8603</v>
+        <v>8661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04353053832607749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01076760840056988</v>
+        <v>0.01134743564900677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09798279765388325</v>
+        <v>0.09864360515934732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10143</v>
+        <v>10473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02852823127443249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01126115815162354</v>
+        <v>0.0112286303909991</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06045265143002546</v>
+        <v>0.0624214330437939</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>5300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1991</v>
+        <v>1938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11114</v>
+        <v>11290</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06626563799260622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02489967568607639</v>
+        <v>0.02422977736071241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1389651419792076</v>
+        <v>0.1411658046100696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8059</v>
+        <v>8174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03457774913084896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01107713080523829</v>
+        <v>0.0109709345519739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09178753652324499</v>
+        <v>0.093096238302696</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>8336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3990</v>
+        <v>4015</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15657</v>
+        <v>16408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04968293576392643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02378378998552572</v>
+        <v>0.02393044864692658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09331844630346539</v>
+        <v>0.09779479685221223</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>14541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8925</v>
+        <v>7996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22623</v>
+        <v>22816</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.18180854925084</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1115957026798326</v>
+        <v>0.09997270496166795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2828689770202799</v>
+        <v>0.2852739378060811</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -905,19 +905,19 @@
         <v>13525</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7842</v>
+        <v>7653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20835</v>
+        <v>21347</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1540466873517957</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08931328390352709</v>
+        <v>0.08715870738938397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2373026291377677</v>
+        <v>0.243130159670212</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -926,19 +926,19 @@
         <v>28066</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17936</v>
+        <v>18883</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38569</v>
+        <v>39214</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1672803902057867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1069046745068114</v>
+        <v>0.1125467035445277</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.229880543687415</v>
+        <v>0.2337243645493264</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>19875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12789</v>
+        <v>12824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29250</v>
+        <v>28576</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2485016825704331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1599067294249636</v>
+        <v>0.1603391899637545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3657226979657857</v>
+        <v>0.3573012902866883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -976,19 +976,19 @@
         <v>23827</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16177</v>
+        <v>16418</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32211</v>
+        <v>33093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2713766724005308</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1842511900575434</v>
+        <v>0.1869956178859613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3668626889449719</v>
+        <v>0.3769095316125477</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -997,19 +997,19 @@
         <v>43702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32767</v>
+        <v>32449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55784</v>
+        <v>55536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2604724751496252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1952971565780593</v>
+        <v>0.193401963209302</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3324847650099955</v>
+        <v>0.3310098145175127</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>39298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30308</v>
+        <v>30421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48929</v>
+        <v>48445</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4913656583806559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.378954070673486</v>
+        <v>0.3803692668102082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6117836191440787</v>
+        <v>0.6057315795132939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1047,19 +1047,19 @@
         <v>43590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35499</v>
+        <v>34969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53341</v>
+        <v>53203</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4964683527907471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4043116015626405</v>
+        <v>0.3982790880433457</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6075272027837344</v>
+        <v>0.6059516620508667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -1068,19 +1068,19 @@
         <v>82889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>71161</v>
+        <v>69962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>97034</v>
+        <v>96960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4940359676062291</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4241339242300215</v>
+        <v>0.4169901686358497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5783459910956247</v>
+        <v>0.5779022248529152</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>21053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13494</v>
+        <v>12934</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32142</v>
+        <v>31886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05487119641519399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03517099605201353</v>
+        <v>0.0337121630504512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08377530582622511</v>
+        <v>0.0831068210562137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1193,19 +1193,19 @@
         <v>16592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9616</v>
+        <v>9604</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26341</v>
+        <v>26903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06074681089110312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03520426544074888</v>
+        <v>0.03516238234497742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09643823368944207</v>
+        <v>0.09849863946809817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1214,19 +1214,19 @@
         <v>37645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26933</v>
+        <v>26437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50068</v>
+        <v>50242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05731458960237721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04100555883572674</v>
+        <v>0.04025111916723977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07622987788465631</v>
+        <v>0.07649393918773648</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>17590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9838</v>
+        <v>10190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29178</v>
+        <v>28336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04584615351638964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02564099959544077</v>
+        <v>0.02655988275830213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07604855524439876</v>
+        <v>0.07385410442959794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1264,19 +1264,19 @@
         <v>8777</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3918</v>
+        <v>3951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18741</v>
+        <v>16336</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03213426811639153</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01434626920675016</v>
+        <v>0.01446608152871416</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06861452264537679</v>
+        <v>0.05980912491126566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1285,19 +1285,19 @@
         <v>26367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17520</v>
+        <v>17294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38662</v>
+        <v>38812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04014402184877228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02667397680484035</v>
+        <v>0.02633090201056506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05886339494504444</v>
+        <v>0.05909122457687345</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>62122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49059</v>
+        <v>48439</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79243</v>
+        <v>78245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1619154632483404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1278668594380492</v>
+        <v>0.126251959529568</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2065388407977995</v>
+        <v>0.2039359204561363</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1335,19 +1335,19 @@
         <v>39296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27600</v>
+        <v>28016</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52786</v>
+        <v>52504</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1438714027476291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1010481857153209</v>
+        <v>0.1025735444523781</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1932600214529383</v>
+        <v>0.1922273180706834</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>97</v>
@@ -1356,19 +1356,19 @@
         <v>101419</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>84704</v>
+        <v>83370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123204</v>
+        <v>123029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1544117826244108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1289625973372969</v>
+        <v>0.1269327016440576</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1875806973720548</v>
+        <v>0.1873134485299002</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>90157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74026</v>
+        <v>74567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107906</v>
+        <v>106816</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2349843010896135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.192941696891644</v>
+        <v>0.1943509311233945</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2812462831958469</v>
+        <v>0.2784032553420478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1406,19 +1406,19 @@
         <v>70804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56254</v>
+        <v>55400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86171</v>
+        <v>85506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.259226597540606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2059571687833491</v>
+        <v>0.2028299396197638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3154876948392031</v>
+        <v>0.3130524424882131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -1427,19 +1427,19 @@
         <v>160961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140087</v>
+        <v>140236</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186496</v>
+        <v>184251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2450655380790206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2132847681757749</v>
+        <v>0.213511118162802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2839439266424878</v>
+        <v>0.2805251271368953</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>192750</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172624</v>
+        <v>172113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212711</v>
+        <v>211252</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5023828857304624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4499256655517617</v>
+        <v>0.4485939146243907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.554408123151737</v>
+        <v>0.5506056937580319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1477,19 +1477,19 @@
         <v>137666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118902</v>
+        <v>122308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154199</v>
+        <v>156230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5040209207042703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.435324918566546</v>
+        <v>0.4477920664681524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.564550978882101</v>
+        <v>0.571987083183236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -1498,19 +1498,19 @@
         <v>330416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306552</v>
+        <v>302710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356724</v>
+        <v>355515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5030640678454191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4667307848724673</v>
+        <v>0.460881070140132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5431191894731501</v>
+        <v>0.5412783328585591</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>13631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7079</v>
+        <v>7583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23233</v>
+        <v>22603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03205738096338698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01664804245399091</v>
+        <v>0.01783360579479373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05464074136540649</v>
+        <v>0.053157509151667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>8097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3929</v>
+        <v>3902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15571</v>
+        <v>14822</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02842886629444909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01379398106963099</v>
+        <v>0.01369934342668982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05467293547845662</v>
+        <v>0.0520430357320958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1644,19 +1644,19 @@
         <v>21728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13933</v>
+        <v>13825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33839</v>
+        <v>32584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03060186298605366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0196237237557075</v>
+        <v>0.01947166179775972</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04766060312097272</v>
+        <v>0.04589242334758495</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>20151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12299</v>
+        <v>12280</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31660</v>
+        <v>31828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04739123898016875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0289244062050233</v>
+        <v>0.02888110965053443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07445910443307968</v>
+        <v>0.07485435555715685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1694,19 +1694,19 @@
         <v>13183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7066</v>
+        <v>6953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23152</v>
+        <v>22112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04628782375479484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02481048269053281</v>
+        <v>0.02441285126520739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08129030079260732</v>
+        <v>0.07763778617153004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1715,19 +1715,19 @@
         <v>33334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23569</v>
+        <v>23557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47930</v>
+        <v>46342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04694862241567099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03319526979091404</v>
+        <v>0.03317839151257184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06750660053728583</v>
+        <v>0.06526993482075123</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>72180</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58310</v>
+        <v>56831</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>89202</v>
+        <v>88321</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1697549542368834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1371351522111628</v>
+        <v>0.1336566104089358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2097888408507057</v>
+        <v>0.2077169731848759</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1765,19 +1765,19 @@
         <v>60707</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47293</v>
+        <v>48396</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76536</v>
+        <v>75567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2131511218971165</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1660541623805442</v>
+        <v>0.1699257646956381</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2687295534256136</v>
+        <v>0.2653279035519641</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -1786,19 +1786,19 @@
         <v>132887</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>112703</v>
+        <v>112892</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>154525</v>
+        <v>156413</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1871626011502495</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1587356830875707</v>
+        <v>0.1590013814107762</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2176386541777925</v>
+        <v>0.2202976218365919</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>105521</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88369</v>
+        <v>87736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122272</v>
+        <v>123263</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2481682453513825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2078302716918941</v>
+        <v>0.2063419597522013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2875638125272833</v>
+        <v>0.2898937664746682</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1836,19 +1836,19 @@
         <v>72594</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59326</v>
+        <v>59101</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88591</v>
+        <v>88268</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2548875114228655</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2083007932362595</v>
+        <v>0.207513115704559</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3110564626894349</v>
+        <v>0.3099233086652169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>178</v>
@@ -1857,19 +1857,19 @@
         <v>178115</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>158177</v>
+        <v>155864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>203496</v>
+        <v>201503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2508635665651154</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2227823594687498</v>
+        <v>0.2195247390525249</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2866114987877956</v>
+        <v>0.2838041687879236</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>213717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193692</v>
+        <v>192430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234309</v>
+        <v>234322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5026281804681784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4555324332514203</v>
+        <v>0.4525643143871589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5510574279977791</v>
+        <v>0.5510873408666067</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -1907,19 +1907,19 @@
         <v>130226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111451</v>
+        <v>114590</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>147987</v>
+        <v>147571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4572446766307741</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3913201082763814</v>
+        <v>0.4023438027511456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5196040380795141</v>
+        <v>0.51814325543161</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>327</v>
@@ -1928,19 +1928,19 @@
         <v>343943</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315091</v>
+        <v>317944</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371253</v>
+        <v>371155</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4844233468829104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4437867946535027</v>
+        <v>0.4478045867848404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5228867417471756</v>
+        <v>0.5227493945073577</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>16555</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9536</v>
+        <v>9396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26377</v>
+        <v>27338</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04515608208335713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02601115734325283</v>
+        <v>0.02563075704947884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07194902692168628</v>
+        <v>0.07457001897026637</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2053,19 +2053,19 @@
         <v>12263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6162</v>
+        <v>6615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20229</v>
+        <v>21915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05467301999814152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0274722852205015</v>
+        <v>0.02949189034935467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09018912316645054</v>
+        <v>0.09770844283917568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2074,19 +2074,19 @@
         <v>28817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19532</v>
+        <v>19452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42701</v>
+        <v>41417</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04876846556560369</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0330540739865284</v>
+        <v>0.03291881631694731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0722640446579777</v>
+        <v>0.07009174596059026</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>14786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8317</v>
+        <v>8613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24034</v>
+        <v>24646</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04033283456229016</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02268634598736114</v>
+        <v>0.02349505337333433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06555859235405417</v>
+        <v>0.06722680923934662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2124,19 +2124,19 @@
         <v>11662</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6245</v>
+        <v>6197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20983</v>
+        <v>21008</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05199485771930135</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02784408635304517</v>
+        <v>0.02762914312185031</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09355288587929296</v>
+        <v>0.09366228980708531</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2145,19 +2145,19 @@
         <v>26448</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17710</v>
+        <v>17121</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38183</v>
+        <v>39025</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04475943692107193</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02997098909003726</v>
+        <v>0.02897394505302053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06461913773011035</v>
+        <v>0.06604285996508916</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>51349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37751</v>
+        <v>38919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66686</v>
+        <v>67351</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1400637723473907</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1029740198908703</v>
+        <v>0.1061588859832597</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1819001875829959</v>
+        <v>0.1837127378958873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2195,19 +2195,19 @@
         <v>37801</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26312</v>
+        <v>26438</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50342</v>
+        <v>51704</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.168538403241253</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1173110212913203</v>
+        <v>0.1178756816986495</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2244526116918471</v>
+        <v>0.2305220597613077</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -2216,19 +2216,19 @@
         <v>89150</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71811</v>
+        <v>71424</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109887</v>
+        <v>109410</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1508720057545103</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1215290143444321</v>
+        <v>0.1208732998367611</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1859654123042805</v>
+        <v>0.1851581500477772</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>88526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71449</v>
+        <v>71930</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105618</v>
+        <v>107925</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2414724671986794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1948916003558777</v>
+        <v>0.1962031400745802</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.288095480499812</v>
+        <v>0.2943882984149876</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2266,19 +2266,19 @@
         <v>58957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45714</v>
+        <v>43662</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73851</v>
+        <v>73817</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2628609466323844</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2038178395783452</v>
+        <v>0.194666296734721</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3292636637343818</v>
+        <v>0.3291152512938834</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -2287,19 +2287,19 @@
         <v>147483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127166</v>
+        <v>128069</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170488</v>
+        <v>172474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2495909807908148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2152073657269719</v>
+        <v>0.2167351901491074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2885230058057869</v>
+        <v>0.2918839464116179</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>195393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174853</v>
+        <v>173686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>215197</v>
+        <v>215716</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5329748438082825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4769470527434961</v>
+        <v>0.473763071682445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5869937669008705</v>
+        <v>0.588409904925551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -2337,19 +2337,19 @@
         <v>103607</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88426</v>
+        <v>88235</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119546</v>
+        <v>121269</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4619327724089198</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3942481451885859</v>
+        <v>0.3933948466902122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5329992732577651</v>
+        <v>0.5406782596126821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>262</v>
@@ -2358,19 +2358,19 @@
         <v>299001</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>271163</v>
+        <v>275556</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>323078</v>
+        <v>325929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5060091109679992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.45889785647105</v>
+        <v>0.4663323449136312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5467552877300988</v>
+        <v>0.5515812336391244</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>7342</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3205</v>
+        <v>3181</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14421</v>
+        <v>14138</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04665876713140535</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02036925222872634</v>
+        <v>0.02021867778674349</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09165079120982175</v>
+        <v>0.08985156311553338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6681</v>
+        <v>6405</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03056413256980038</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09732896037380019</v>
+        <v>0.09330809025114924</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2504,19 +2504,19 @@
         <v>9440</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5069</v>
+        <v>5107</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17462</v>
+        <v>17651</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04176995869276798</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02242993607011265</v>
+        <v>0.02259781124692162</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0772678040276014</v>
+        <v>0.07810205231021035</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>7515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3118</v>
+        <v>3194</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14008</v>
+        <v>15180</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04775647562765754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01981443656545907</v>
+        <v>0.02029678441481442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08902462797240804</v>
+        <v>0.0964737642994631</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2554,19 +2554,19 @@
         <v>2960</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7619</v>
+        <v>8141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0431232670634981</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01348460224414631</v>
+        <v>0.01365213497607441</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1109816248775221</v>
+        <v>0.1185909085019793</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2575,19 +2575,19 @@
         <v>10475</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5254</v>
+        <v>5249</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18470</v>
+        <v>18437</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04634912033544947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02324643556560152</v>
+        <v>0.02322634973284667</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08172713358581164</v>
+        <v>0.0815792189640762</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>23176</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14698</v>
+        <v>15070</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33514</v>
+        <v>34362</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1472863922848781</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09341063069990459</v>
+        <v>0.09577367209865026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.212986820391979</v>
+        <v>0.218377496206123</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2625,19 +2625,19 @@
         <v>11722</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6322</v>
+        <v>6025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18721</v>
+        <v>19198</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1707530692791451</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09208808874407397</v>
+        <v>0.0877675610125499</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2727085126037316</v>
+        <v>0.2796559894462601</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -2646,19 +2646,19 @@
         <v>34898</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24403</v>
+        <v>24863</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48051</v>
+        <v>48201</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.154414487556456</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1079763399158865</v>
+        <v>0.1100152607274161</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.21261555341298</v>
+        <v>0.2132813221978608</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>30014</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21687</v>
+        <v>21354</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41063</v>
+        <v>41027</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1907435884746059</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1378231648808628</v>
+        <v>0.1357124289344781</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2609674612556246</v>
+        <v>0.2607378014063946</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -2696,19 +2696,19 @@
         <v>16723</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9635</v>
+        <v>9981</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>25766</v>
+        <v>26063</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2436041864067937</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1403560301766218</v>
+        <v>0.1453902703259475</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3753285645885527</v>
+        <v>0.3796555327322754</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2717,19 +2717,19 @@
         <v>46737</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34075</v>
+        <v>35461</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>59944</v>
+        <v>61239</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2068002026371163</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1507762267307659</v>
+        <v>0.1569087274786451</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2652423016365769</v>
+        <v>0.2709690847170751</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>89305</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>75944</v>
+        <v>76393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101667</v>
+        <v>101470</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.567554776481453</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4826390895115494</v>
+        <v>0.485495216369342</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.646118666774693</v>
+        <v>0.6448660961412287</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2767,19 +2767,19 @@
         <v>35145</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25631</v>
+        <v>26147</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43752</v>
+        <v>44255</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5119553446807628</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3733694034545699</v>
+        <v>0.3808866140000812</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6373420466227916</v>
+        <v>0.6446589127790469</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>116</v>
@@ -2788,19 +2788,19 @@
         <v>124450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>108078</v>
+        <v>107645</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140541</v>
+        <v>138810</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5506662307782102</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4782216157873369</v>
+        <v>0.4763071191732355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6218634671653471</v>
+        <v>0.6142041876956043</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>59544</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>45805</v>
+        <v>43917</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>76755</v>
+        <v>74504</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04214593225199854</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03242120473509977</v>
+        <v>0.03108478549555971</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05432792640356501</v>
+        <v>0.05273448883484646</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>40</v>
@@ -2913,19 +2913,19 @@
         <v>42872</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31055</v>
+        <v>29934</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>56474</v>
+        <v>56204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0456722001724774</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03308330325463742</v>
+        <v>0.03188895732820278</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06016319102477785</v>
+        <v>0.05987516727727318</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>97</v>
@@ -2934,19 +2934,19 @@
         <v>102416</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>82728</v>
+        <v>84548</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>122823</v>
+        <v>124931</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04355356825923442</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03518108198650137</v>
+        <v>0.03595517616549365</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05223179578673629</v>
+        <v>0.05312854277568423</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>65341</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51677</v>
+        <v>49978</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>84254</v>
+        <v>82146</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04624920202710035</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03657782414442055</v>
+        <v>0.03537505920197731</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05963547171161323</v>
+        <v>0.05814361279703703</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -2984,19 +2984,19 @@
         <v>39618</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27816</v>
+        <v>27208</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>54497</v>
+        <v>53915</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04220635549658056</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02963351919838718</v>
+        <v>0.02898549833738195</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05805683876546517</v>
+        <v>0.05743726974650265</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>95</v>
@@ -3005,19 +3005,19 @@
         <v>104960</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86284</v>
+        <v>85851</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>128354</v>
+        <v>127349</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04463535518493656</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03669321728823074</v>
+        <v>0.03650933254404815</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05458401771700835</v>
+        <v>0.0541568148258594</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>223367</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>194680</v>
+        <v>195800</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>251778</v>
+        <v>254261</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1581013716267156</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1377963327135525</v>
+        <v>0.1385891016792144</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1782108413011815</v>
+        <v>0.1799681361293123</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>150</v>
@@ -3055,19 +3055,19 @@
         <v>163052</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>141674</v>
+        <v>140631</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>187308</v>
+        <v>191377</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1737033500690693</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1509284908938776</v>
+        <v>0.1498180324045783</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1995436414274676</v>
+        <v>0.2038789711611151</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>360</v>
@@ -3076,19 +3076,19 @@
         <v>386419</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>348347</v>
+        <v>348836</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>424840</v>
+        <v>422390</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1643294595471004</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1481389102971087</v>
+        <v>0.1483466298535792</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1806682388081405</v>
+        <v>0.1796264064243777</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>334092</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>302031</v>
+        <v>302026</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>364026</v>
+        <v>367921</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2364736734765893</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.213780672435791</v>
+        <v>0.2137767780443302</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2576610035882569</v>
+        <v>0.2604180273484743</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>222</v>
@@ -3126,19 +3126,19 @@
         <v>242905</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>217536</v>
+        <v>215177</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>271013</v>
+        <v>273660</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2587724330366844</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2317465401363973</v>
+        <v>0.2292329917721905</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2887164010526757</v>
+        <v>0.291536821177762</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>546</v>
@@ -3147,19 +3147,19 @@
         <v>576997</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>532853</v>
+        <v>536855</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>623323</v>
+        <v>620733</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2453750211850818</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.226602178871149</v>
+        <v>0.2283040255061264</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2650756793274454</v>
+        <v>0.2639744500893569</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>730464</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>690306</v>
+        <v>695411</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>768949</v>
+        <v>772224</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5170298206175963</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4886051632937198</v>
+        <v>0.492218759522106</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5442693158856249</v>
+        <v>0.5465876577545774</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>419</v>
@@ -3197,19 +3197,19 @@
         <v>450234</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>418695</v>
+        <v>418557</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>481850</v>
+        <v>482222</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4796456612251884</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4460462010752065</v>
+        <v>0.4458995218861467</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5133261556250407</v>
+        <v>0.5137229986930874</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1095</v>
@@ -3218,19 +3218,19 @@
         <v>1180699</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1127028</v>
+        <v>1129208</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1228916</v>
+        <v>1227525</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5021065958236468</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4792824315903522</v>
+        <v>0.4802097209890421</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5226116009923738</v>
+        <v>0.522020266490689</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>4690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1117</v>
+        <v>1101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11723</v>
+        <v>10816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0592858888812702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01412137858932452</v>
+        <v>0.01391399183610254</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1481823578236881</v>
+        <v>0.1367208081788386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7081</v>
+        <v>6933</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02114219510688388</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07708797484072921</v>
+        <v>0.07548113447274878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -3605,19 +3605,19 @@
         <v>6632</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2371</v>
+        <v>2879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12926</v>
+        <v>14062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03879220706420851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01386663453912658</v>
+        <v>0.01684208398577176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07560817974566282</v>
+        <v>0.08225364473520605</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>12779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7286</v>
+        <v>6725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20074</v>
+        <v>20198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.161539784468857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09210610454254033</v>
+        <v>0.08501351946361967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2537497531907476</v>
+        <v>0.2553236724214163</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -3655,19 +3655,19 @@
         <v>11294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5685</v>
+        <v>6538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17943</v>
+        <v>19007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1229536299925966</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06188957266316165</v>
+        <v>0.07117588191682098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1953368460938551</v>
+        <v>0.2069232844681862</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3676,19 +3676,19 @@
         <v>24073</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16206</v>
+        <v>15581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33775</v>
+        <v>35076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1408083792447652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09479192076159693</v>
+        <v>0.09113732024586284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1975539099054641</v>
+        <v>0.2051683994059953</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>17509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11025</v>
+        <v>10685</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26771</v>
+        <v>26652</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2213225933639307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1393690219569549</v>
+        <v>0.135067641456287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3384112041140068</v>
+        <v>0.3369032235472391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -3726,19 +3726,19 @@
         <v>21531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14882</v>
+        <v>14774</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30415</v>
+        <v>29991</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2344023075202755</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1620125139989627</v>
+        <v>0.16084139889773</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3311195496763827</v>
+        <v>0.3265010857475048</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -3747,19 +3747,19 @@
         <v>39040</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29852</v>
+        <v>27479</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51664</v>
+        <v>50830</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2283500066439274</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1746108355160232</v>
+        <v>0.1607294773901287</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.302190958363555</v>
+        <v>0.297314033131332</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>26005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18207</v>
+        <v>17430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35326</v>
+        <v>34645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3287283024940796</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2301559376545148</v>
+        <v>0.2203343011936812</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4465544242213323</v>
+        <v>0.4379413472733177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3797,19 +3797,19 @@
         <v>24157</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16461</v>
+        <v>16159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32672</v>
+        <v>32773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2629932362098346</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1792061978240638</v>
+        <v>0.1759161768905065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3556881805123091</v>
+        <v>0.3567944172234442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -3818,19 +3818,19 @@
         <v>50163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40550</v>
+        <v>39386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64285</v>
+        <v>63236</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2934104452194022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2371853350234852</v>
+        <v>0.2303748660412672</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3760171978129807</v>
+        <v>0.3698800808871664</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>18126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11311</v>
+        <v>10515</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26716</v>
+        <v>26985</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2291234307918624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1429832860573966</v>
+        <v>0.1329228198862798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.337710805251529</v>
+        <v>0.3411108774494115</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -3868,19 +3868,19 @@
         <v>32931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24605</v>
+        <v>24920</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42337</v>
+        <v>41652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3585086311704094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2678697752914989</v>
+        <v>0.2713000978167394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4609106536465176</v>
+        <v>0.453458799081372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -3889,19 +3889,19 @@
         <v>51057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>39079</v>
+        <v>39006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63080</v>
+        <v>63243</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2986389618276967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2285829277937699</v>
+        <v>0.2281508516782178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3689686493479326</v>
+        <v>0.3699216602029698</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>20417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12045</v>
+        <v>13019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30405</v>
+        <v>31734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05932113531977521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03499574898944843</v>
+        <v>0.03782649866629845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08834050228458687</v>
+        <v>0.09220002098292841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4014,19 +4014,19 @@
         <v>11338</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6574</v>
+        <v>6445</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19148</v>
+        <v>18097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04142373051770859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02401616052541567</v>
+        <v>0.02354530922989362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06995731954190168</v>
+        <v>0.06611486462433487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -4035,19 +4035,19 @@
         <v>31756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21036</v>
+        <v>21713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43513</v>
+        <v>43116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05139299415922169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03404375219206566</v>
+        <v>0.03513910231022628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07042051877321086</v>
+        <v>0.06977769234972547</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>33789</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23456</v>
+        <v>23438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45472</v>
+        <v>45728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09817183852238685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06815052934311924</v>
+        <v>0.06809590216151218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.132113733782999</v>
+        <v>0.1328581732313203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -4085,19 +4085,19 @@
         <v>25354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17352</v>
+        <v>16988</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35974</v>
+        <v>35258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09262783033756246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06339336335025057</v>
+        <v>0.06206605727948946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1314278018717217</v>
+        <v>0.128811030009976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -4106,19 +4106,19 @@
         <v>59143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45771</v>
+        <v>46662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75909</v>
+        <v>73385</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0957159696424766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07407560894734398</v>
+        <v>0.07551745733090356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1228493184550981</v>
+        <v>0.1187647482803932</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>75167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59801</v>
+        <v>60484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90754</v>
+        <v>91444</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2183927049837516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1737479500043356</v>
+        <v>0.1757312308173189</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2636777399826382</v>
+        <v>0.2656815646696508</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -4156,19 +4156,19 @@
         <v>71003</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57990</v>
+        <v>58024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84882</v>
+        <v>86307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2594050150128459</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2118611264027954</v>
+        <v>0.2119875479970796</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3101108510219319</v>
+        <v>0.3153150570348246</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -4177,19 +4177,19 @@
         <v>146171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125328</v>
+        <v>125522</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>168120</v>
+        <v>170136</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2365602207117022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2028275015969031</v>
+        <v>0.2031424816826258</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2720824921298747</v>
+        <v>0.2753439595601124</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>88745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73640</v>
+        <v>73240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106068</v>
+        <v>106489</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2578423689309809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2139535566633832</v>
+        <v>0.2127919457004528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3081705638311194</v>
+        <v>0.3093957843379306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -4227,19 +4227,19 @@
         <v>74280</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59884</v>
+        <v>59746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89325</v>
+        <v>88270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2713744369712419</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2187806814292776</v>
+        <v>0.2182758612171483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3263427655206124</v>
+        <v>0.3224873332274847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -4248,19 +4248,19 @@
         <v>163025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143313</v>
+        <v>141805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185142</v>
+        <v>186655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2638367657054795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2319354074682737</v>
+        <v>0.229494484063213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2996296443187745</v>
+        <v>0.3020786409977244</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>126065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106923</v>
+        <v>108024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144230</v>
+        <v>144029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3662719522431054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3106541841556719</v>
+        <v>0.3138533321595799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4190476515328323</v>
+        <v>0.4184636772706865</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -4298,19 +4298,19 @@
         <v>91741</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77122</v>
+        <v>77329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>107892</v>
+        <v>108001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3351689871606411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2817578728857741</v>
+        <v>0.2825154233319639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3941762045575995</v>
+        <v>0.3945744834538908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -4319,19 +4319,19 @@
         <v>217807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196085</v>
+        <v>193360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>243193</v>
+        <v>240092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.35249404978112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3173392868001049</v>
+        <v>0.3129293452729092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3935779500468181</v>
+        <v>0.3885592947455007</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>14991</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8617</v>
+        <v>8715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25058</v>
+        <v>25199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.032617891672595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01874951137329409</v>
+        <v>0.01896270204180333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05452304340886762</v>
+        <v>0.05483020727828002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4444,19 +4444,19 @@
         <v>15831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8634</v>
+        <v>9506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23940</v>
+        <v>24910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04987399950234112</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0272019707921748</v>
+        <v>0.0299497478588202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07542328979739071</v>
+        <v>0.07847877871578866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -4465,19 +4465,19 @@
         <v>30821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21326</v>
+        <v>20898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42809</v>
+        <v>43093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03966720248282683</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02744689590446393</v>
+        <v>0.02689545022513796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05509522295281359</v>
+        <v>0.05546129894414349</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>33123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22826</v>
+        <v>22966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47084</v>
+        <v>45637</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0720715935082082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04966614340742079</v>
+        <v>0.04997044924753999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1024478105097691</v>
+        <v>0.09929921446214492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -4515,19 +4515,19 @@
         <v>30799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21970</v>
+        <v>21286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42871</v>
+        <v>41872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09703202831407072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06921516194766313</v>
+        <v>0.06705952248895707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1350645525099698</v>
+        <v>0.1319148215765575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -4536,19 +4536,19 @@
         <v>63922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>50555</v>
+        <v>50587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81510</v>
+        <v>79554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08226820705751299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06506487329288664</v>
+        <v>0.06510585502156287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1049034101303593</v>
+        <v>0.1023857966594494</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>101579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83944</v>
+        <v>84034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121795</v>
+        <v>119825</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2210219683177337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1826507316899771</v>
+        <v>0.1828470576585534</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2650090668837861</v>
+        <v>0.2607227964677294</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -4586,19 +4586,19 @@
         <v>66396</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54044</v>
+        <v>53741</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80432</v>
+        <v>81335</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2091781205845409</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1702622516990369</v>
+        <v>0.169309768295606</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.253398965186251</v>
+        <v>0.2562420997452938</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>167</v>
@@ -4607,19 +4607,19 @@
         <v>167975</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143896</v>
+        <v>144417</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189112</v>
+        <v>193638</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2161836255880705</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1851940962581754</v>
+        <v>0.1858646046380168</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2433875427703024</v>
+        <v>0.249212612421622</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>134102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114337</v>
+        <v>115225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>154575</v>
+        <v>157128</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2917865524670651</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2487822090139077</v>
+        <v>0.2507135925642657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3363346957859749</v>
+        <v>0.3418890461133968</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -4657,19 +4657,19 @@
         <v>76464</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62029</v>
+        <v>60187</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91077</v>
+        <v>90744</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2408958594948058</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1954200771267443</v>
+        <v>0.1896172748876967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.286934157867155</v>
+        <v>0.2858848009023285</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -4678,19 +4678,19 @@
         <v>210565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187707</v>
+        <v>185294</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234924</v>
+        <v>236673</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2709971418045325</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2415783234319297</v>
+        <v>0.2384736686536474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3023475916540147</v>
+        <v>0.3045975199916894</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>175793</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152938</v>
+        <v>154123</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195353</v>
+        <v>199073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3825019940343979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3327720085087155</v>
+        <v>0.3353513507246176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4250605707650721</v>
+        <v>0.4331561145809265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -4728,19 +4728,19 @@
         <v>127924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111755</v>
+        <v>111949</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>145572</v>
+        <v>147070</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4030199921042414</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3520793033526807</v>
+        <v>0.3526909777111112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4586191978658606</v>
+        <v>0.4633367747912358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -4749,19 +4749,19 @@
         <v>303717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277775</v>
+        <v>276947</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>330866</v>
+        <v>331013</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3908838230670572</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3574963865097313</v>
+        <v>0.3564310129111863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4258246218983284</v>
+        <v>0.4260140522646877</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>17930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10248</v>
+        <v>10014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27932</v>
+        <v>27685</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0487579911886259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02786789178297165</v>
+        <v>0.02723134735212877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07595855875033602</v>
+        <v>0.07528610474307036</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4874,19 +4874,19 @@
         <v>20598</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12948</v>
+        <v>12911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31500</v>
+        <v>30903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08472322847497267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05325968709429134</v>
+        <v>0.05310570911669271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1295663947992217</v>
+        <v>0.1271108234832079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4895,19 +4895,19 @@
         <v>38527</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27850</v>
+        <v>27637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50530</v>
+        <v>52846</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06307222894252926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04559323931180991</v>
+        <v>0.04524451540703364</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08272162616993492</v>
+        <v>0.08651204849061198</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>30893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20786</v>
+        <v>21087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43354</v>
+        <v>43986</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08401116411850172</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05652421521837608</v>
+        <v>0.05734308967895769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1178960899851066</v>
+        <v>0.119615542101402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -4945,19 +4945,19 @@
         <v>26612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18335</v>
+        <v>17922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37621</v>
+        <v>38990</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1094612918540901</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07541486295008719</v>
+        <v>0.07371886315931431</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.154743259647742</v>
+        <v>0.1603738754641436</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -4966,19 +4966,19 @@
         <v>57505</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>44805</v>
+        <v>44142</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>74315</v>
+        <v>74460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09414036683650291</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07334986419840839</v>
+        <v>0.07226391660229539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1216596638750877</v>
+        <v>0.1218967980119896</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>70340</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56997</v>
+        <v>55045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86626</v>
+        <v>86716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1912819994619881</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1549981450010232</v>
+        <v>0.1496886780082656</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2355710717974459</v>
+        <v>0.235814498112516</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -5016,19 +5016,19 @@
         <v>46240</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34794</v>
+        <v>34208</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>59377</v>
+        <v>59544</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1901969352325209</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1431171097505928</v>
+        <v>0.1407067020109879</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2442312825641269</v>
+        <v>0.2449166086777003</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -5037,19 +5037,19 @@
         <v>116580</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>99022</v>
+        <v>98066</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>140978</v>
+        <v>136763</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1908501416867929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.162106689182292</v>
+        <v>0.160541259483143</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2307912257012137</v>
+        <v>0.2238907921981039</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>108519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90481</v>
+        <v>90314</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127292</v>
+        <v>126443</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2951075128438191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2460530466218795</v>
+        <v>0.2455991269415541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3461577023543875</v>
+        <v>0.3438490100019192</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -5087,19 +5087,19 @@
         <v>73179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59660</v>
+        <v>58300</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89073</v>
+        <v>90006</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3010017331469036</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2453955503942948</v>
+        <v>0.2397998588170434</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3663792752804131</v>
+        <v>0.3702136665229579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -5108,19 +5108,19 @@
         <v>181698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>159506</v>
+        <v>160662</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>205474</v>
+        <v>204618</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2974534245396184</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2611231946788238</v>
+        <v>0.2630153059338474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.336375848879342</v>
+        <v>0.3349753068756906</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>140046</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>120515</v>
+        <v>118857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>161135</v>
+        <v>159656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3808413323870651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3277287209774048</v>
+        <v>0.3232201216536646</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4381915673093304</v>
+        <v>0.4341681071694446</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>70</v>
@@ -5158,19 +5158,19 @@
         <v>76489</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63891</v>
+        <v>62062</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93234</v>
+        <v>92887</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3146168112915127</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.262798618710201</v>
+        <v>0.2552733144061454</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3834946806172889</v>
+        <v>0.3820637467851478</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>192</v>
@@ -5179,19 +5179,19 @@
         <v>216535</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>193295</v>
+        <v>191751</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242326</v>
+        <v>239782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3544838379945565</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.316437514456994</v>
+        <v>0.3139105420974639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3967056429990398</v>
+        <v>0.3925412972499437</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>10120</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4558</v>
+        <v>5491</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19032</v>
+        <v>18385</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06106651488375692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02750478081387221</v>
+        <v>0.03313090474935463</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1148407299010697</v>
+        <v>0.1109332944878333</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5304,19 +5304,19 @@
         <v>8091</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3200</v>
+        <v>3172</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15734</v>
+        <v>16324</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07641613903660539</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03022122786895209</v>
+        <v>0.02996215171593599</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1486036563446546</v>
+        <v>0.1541765490180332</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5325,19 +5325,19 @@
         <v>18211</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11303</v>
+        <v>11278</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29013</v>
+        <v>29647</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06705020044812135</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04161701294564683</v>
+        <v>0.04152185664925924</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1068216712131735</v>
+        <v>0.1091557143406827</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>13141</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6797</v>
+        <v>7288</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21634</v>
+        <v>21534</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07929422296377039</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04101180827369433</v>
+        <v>0.04397863840979818</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1305422519853259</v>
+        <v>0.1299360293094417</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -5375,19 +5375,19 @@
         <v>7668</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3280</v>
+        <v>3305</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15385</v>
+        <v>14499</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.072426901369813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03097474445814124</v>
+        <v>0.0312148473151852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1453068177685573</v>
+        <v>0.1369409421994878</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -5396,19 +5396,19 @@
         <v>20810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12087</v>
+        <v>13076</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30681</v>
+        <v>33436</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07661716112313988</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04450091951915941</v>
+        <v>0.04814194304113811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1129613854836246</v>
+        <v>0.123106259637282</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>41752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30895</v>
+        <v>30238</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53870</v>
+        <v>54405</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2519310164604967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1864240214756312</v>
+        <v>0.1824555732625116</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3250536860042414</v>
+        <v>0.3282828855940635</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -5446,19 +5446,19 @@
         <v>24499</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15423</v>
+        <v>15282</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34866</v>
+        <v>34536</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2313868902308443</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1456626835547314</v>
+        <v>0.1443361670152358</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3293034052990458</v>
+        <v>0.3261799430301403</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -5467,19 +5467,19 @@
         <v>66251</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>51464</v>
+        <v>51478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82519</v>
+        <v>83232</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2439223779212893</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1894802805712966</v>
+        <v>0.1895331953110863</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3038206151846581</v>
+        <v>0.3064449421259062</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>33965</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23442</v>
+        <v>24008</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45329</v>
+        <v>46482</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2049481857419904</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1414503020366024</v>
+        <v>0.1448649616730425</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2735195046731822</v>
+        <v>0.2804759093938431</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -5517,19 +5517,19 @@
         <v>28830</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19982</v>
+        <v>20088</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>39659</v>
+        <v>39964</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2722957611433681</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1887235972815246</v>
+        <v>0.1897217900835604</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3745731498255469</v>
+        <v>0.3774501360386897</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>55</v>
@@ -5538,19 +5538,19 @@
         <v>62796</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48884</v>
+        <v>49022</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>78100</v>
+        <v>78317</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2312020347425463</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1799811587906628</v>
+        <v>0.180490775286547</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2875511069312438</v>
+        <v>0.288348654005891</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>66748</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53954</v>
+        <v>54191</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>80555</v>
+        <v>80059</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4027600599499855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3255595058507294</v>
+        <v>0.3269936809571319</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4860704415500637</v>
+        <v>0.4830801178127885</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -5588,19 +5588,19 @@
         <v>36790</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26129</v>
+        <v>27346</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48302</v>
+        <v>49616</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3474743082193692</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.246780681105961</v>
+        <v>0.2582773970941299</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4562039094201928</v>
+        <v>0.468613912324437</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -5609,19 +5609,19 @@
         <v>103538</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>88142</v>
+        <v>87449</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>122464</v>
+        <v>121464</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3812082257649032</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.324523491782397</v>
+        <v>0.3219720019316232</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4508895834745227</v>
+        <v>0.4472067036154936</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>68148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>51791</v>
+        <v>53466</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>85789</v>
+        <v>85992</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04811590241816793</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03656680326266835</v>
+        <v>0.03774966646577624</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06057128309883174</v>
+        <v>0.06071463975682508</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -5734,19 +5734,19 @@
         <v>57800</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44583</v>
+        <v>43185</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>75690</v>
+        <v>73376</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05600840088287285</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04320172195661936</v>
+        <v>0.0418471236485216</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07334423368645576</v>
+        <v>0.07110246729141452</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>117</v>
@@ -5755,19 +5755,19 @@
         <v>125948</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>105393</v>
+        <v>106532</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>149067</v>
+        <v>149713</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05144264026624666</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04304694321907278</v>
+        <v>0.04351234451216438</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06088534540852916</v>
+        <v>0.06114927993991254</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>123726</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>102530</v>
+        <v>103541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>146816</v>
+        <v>146214</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08735650300162234</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07239078677968859</v>
+        <v>0.07310503237738694</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1036592215770634</v>
+        <v>0.1032337091592823</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>103</v>
@@ -5805,19 +5805,19 @@
         <v>101727</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>83012</v>
+        <v>83942</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>121570</v>
+        <v>121318</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09857483017892085</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08043916247018564</v>
+        <v>0.08134060728415642</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1178021787847743</v>
+        <v>0.1175578527052719</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>218</v>
@@ -5826,19 +5826,19 @@
         <v>225454</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>196023</v>
+        <v>197636</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>255079</v>
+        <v>254362</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09208509861424684</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08006421096591494</v>
+        <v>0.08072316471089165</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1041853895008494</v>
+        <v>0.1038924826968357</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>306347</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>271069</v>
+        <v>274770</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336374</v>
+        <v>339718</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2162950177698779</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.19138761734</v>
+        <v>0.1940003134900344</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2374955381300507</v>
+        <v>0.2398567325045624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>230</v>
@@ -5876,19 +5876,19 @@
         <v>229670</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>203674</v>
+        <v>199996</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>255297</v>
+        <v>254599</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.222552053869564</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1973619062328673</v>
+        <v>0.1937977431559036</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2473846834694104</v>
+        <v>0.246708379296031</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>512</v>
@@ -5897,19 +5897,19 @@
         <v>536016</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>496622</v>
+        <v>496199</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>578581</v>
+        <v>578816</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2189323979230331</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2028420258607924</v>
+        <v>0.2026692444446004</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2363179369092507</v>
+        <v>0.2364138199295331</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>391337</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>357291</v>
+        <v>354734</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>425307</v>
+        <v>426106</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2763023524901101</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2522643367380548</v>
+        <v>0.2504588157589692</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3002867117924989</v>
+        <v>0.3008504465104577</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>271</v>
@@ -5947,19 +5947,19 @@
         <v>276910</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>247415</v>
+        <v>250485</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>305735</v>
+        <v>310009</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2683281666079975</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2397477047087328</v>
+        <v>0.2427219010443383</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2962603824046975</v>
+        <v>0.3004013184855251</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>644</v>
@@ -5968,19 +5968,19 @@
         <v>668247</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>625502</v>
+        <v>626149</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>718404</v>
+        <v>711705</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2729411828807308</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2554823635283585</v>
+        <v>0.2557464233240477</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2934275041281628</v>
+        <v>0.2906915356603594</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>526779</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>489634</v>
+        <v>490404</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>563585</v>
+        <v>564820</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3719302243202217</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3457045744039042</v>
+        <v>0.346247914454013</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3979169864618543</v>
+        <v>0.3987890790596141</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>348</v>
@@ -6018,19 +6018,19 @@
         <v>365875</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>334516</v>
+        <v>334117</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>395802</v>
+        <v>397208</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3545365484606448</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3241494400637772</v>
+        <v>0.32376210791377</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3835353847446619</v>
+        <v>0.384897753431773</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>834</v>
@@ -6039,19 +6039,19 @@
         <v>892654</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>849260</v>
+        <v>842295</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>943690</v>
+        <v>940386</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3645986803157426</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3468748206787903</v>
+        <v>0.3440299863273271</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3854441497232896</v>
+        <v>0.38409475287825</v>
       </c>
     </row>
     <row r="39">
